--- a/5 SQL/5.4.8 Практика.xlsx
+++ b/5 SQL/5.4.8 Практика.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YandexDisk\Документы\Обучение\DataAnalisys\Яндекс практикум\MyYaPract\MyYaPract\5 SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0E33F3-28B0-459E-A831-4971073553BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9C6E1F-5664-400B-931F-99BC07FBBBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{E6D8D4D0-2528-4F5F-AC38-59FD4E71ED5C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>trains</t>
   </si>
@@ -90,15 +90,9 @@
     <t>car_types</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>car_number</t>
   </si>
   <si>
-    <t>car_types (def=1)</t>
-  </si>
-  <si>
     <t>date_entry</t>
   </si>
   <si>
@@ -124,6 +118,15 @@
   </si>
   <si>
     <t>car_id  Unique</t>
+  </si>
+  <si>
+    <t>car_type_name</t>
+  </si>
+  <si>
+    <t>SERIAL  PK</t>
+  </si>
+  <si>
+    <t>car_type_id (def=1)</t>
   </si>
 </sst>
 </file>
@@ -403,18 +406,18 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Другая 2">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="595959"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="595959"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4472C4"/>
@@ -697,15 +700,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74443DE-7002-4CDA-B29E-DA7618361F30}">
-  <dimension ref="B2:I18"/>
+  <dimension ref="B2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="E16:F18"/>
+      <selection activeCell="E17" sqref="E17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="5.19921875" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" customWidth="1"/>
     <col min="3" max="3" width="17.59765625" customWidth="1"/>
     <col min="5" max="5" width="6.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" customWidth="1"/>
@@ -730,7 +733,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="7" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>1</v>
@@ -753,7 +756,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>3</v>
@@ -773,7 +776,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
@@ -821,7 +824,7 @@
     <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -837,7 +840,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2" t="s">
@@ -849,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>4</v>
@@ -860,46 +863,54 @@
     </row>
     <row r="14" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>29</v>
+      <c r="F17" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E18" s="7" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
